--- a/DMSNewVSale_2025-12-08_11-12.xlsx
+++ b/DMSNewVSale_2025-12-08_11-12.xlsx
@@ -266,10 +266,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>34.1700</t>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.1700</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t xml:space="preserve">بلاستر 2سم </t>
@@ -1687,7 +1690,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1696,14 +1699,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1713,11 +1716,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1729,7 +1732,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1746,11 +1749,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>11</v>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1779,14 +1782,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1795,7 +1798,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1812,11 +1815,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>15</v>
@@ -1828,7 +1831,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1845,11 +1848,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1878,11 +1881,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="35" ht="25.5" customHeight="1">
       <c r="N35" s="13">
-        <v>1315.99</v>
+        <v>1366.99</v>
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
@@ -1898,7 +1901,7 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c t="s" r="A36" s="14">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1906,13 +1909,13 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c t="s" r="G36" s="15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
       <c t="s" r="K36" s="17">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
